--- a/Notes/Progress.xlsx
+++ b/Notes/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akos.prucs\Desktop\LLMEnergyEfficiency\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17116EAF-04CD-466A-B754-B688A84ACC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5ABA46-5D17-4534-ABD2-479F63EC1977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22040" windowHeight="11050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="101">
   <si>
     <t>Qwen generation param tuning | temperature=X, top_p=0.95, top_k=20</t>
   </si>
@@ -737,6 +737,24 @@
   </si>
   <si>
     <t>HMMT_Feb25 benchmark fixed performance</t>
+  </si>
+  <si>
+    <t>Plots</t>
+  </si>
+  <si>
+    <t>2025.10.16</t>
+  </si>
+  <si>
+    <t>Curse of repetition of llms during reasoning</t>
+  </si>
+  <si>
+    <t>Understanding the repetition curse through feature analysis</t>
+  </si>
+  <si>
+    <t>Has to turn on frequency_penalty in vllm</t>
+  </si>
+  <si>
+    <t>oss20b high acc:0.5-&gt;0.83  avg_gen_tokens:100k-&gt;43k    at freq_pen=0.005</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1106,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>249782</xdr:colOff>
+      <xdr:colOff>252322</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1600200</xdr:rowOff>
     </xdr:to>
@@ -1176,9 +1194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>557996</xdr:colOff>
+      <xdr:colOff>554186</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2090583</xdr:rowOff>
+      <xdr:rowOff>2085503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1477,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1521,6 +1539,18 @@
         <v>89</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18.5" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{BC1603C9-DB01-4BB5-816C-C200E38FD6D5}">
@@ -1529,9 +1559,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{F3C63940-BEC3-485C-AFDB-1BF88CFCBFEC}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A4DAAE17-9464-4580-BE52-C147DA71399B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1540,7 +1571,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1576,12 +1607,22 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="124" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="174.5" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -1702,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5BA388-1533-4A5E-B2F2-EB2D4227F12E}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1716,7 +1757,7 @@
     <col min="4" max="4" width="24.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1729,8 +1770,11 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.5">
+      <c r="G1" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="8" t="s">
         <v>61</v>
       </c>
@@ -1744,7 +1788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.5">
+    <row r="3" spans="1:7" ht="41.5">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
+    <row r="4" spans="1:7" ht="43.5">
       <c r="A4" s="8" t="s">
         <v>62</v>
       </c>
@@ -1772,7 +1816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="8" t="s">
         <v>63</v>
       </c>
@@ -1786,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5">
+    <row r="6" spans="1:7" ht="43.5">
       <c r="A6" s="8" t="s">
         <v>64</v>
       </c>
@@ -1800,7 +1844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5">
+    <row r="7" spans="1:7" ht="43.5">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1858,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="101.5">
+    <row r="8" spans="1:7" ht="101.5">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -1828,7 +1872,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
+    <row r="9" spans="1:7" ht="43.5">
       <c r="A9" s="8" t="s">
         <v>38</v>
       </c>
@@ -1842,7 +1886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.5">
+    <row r="10" spans="1:7" ht="43.5">
       <c r="A10" s="8" t="s">
         <v>67</v>
       </c>
@@ -1856,7 +1900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5">
+    <row r="11" spans="1:7" ht="43.5">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -1870,7 +1914,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.5">
+    <row r="12" spans="1:7" ht="43.5">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1884,7 +1928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29">
+    <row r="13" spans="1:7" ht="29">
       <c r="A13" s="8" t="s">
         <v>69</v>
       </c>
@@ -1898,7 +1942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5">
+    <row r="14" spans="1:7" ht="43.5">
       <c r="A14" s="8" t="s">
         <v>70</v>
       </c>
@@ -1912,7 +1956,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="43.5">
+    <row r="15" spans="1:7" ht="43.5">
       <c r="A15" s="8" t="s">
         <v>85</v>
       </c>
